--- a/Diagnosis/cstr_model/Fault 1_Bias/T_SensorBias.xlsx
+++ b/Diagnosis/cstr_model/Fault 1_Bias/T_SensorBias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shikarrajcomar/Documents/GitHub/Classification_diagnosis/Diagnosis/cstr_model/Fault 1_Bias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F82B72-FFAF-3B4F-AA19-68FC6069C027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EF1BBC-AD6C-C845-B9A8-D9EC95B1419E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,9 +23,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Time</t>
-  </si>
-  <si>
-    <t>FaultStatus</t>
   </si>
   <si>
     <t>Ci</t>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Class</t>
   </si>
 </sst>
 </file>
@@ -84,11 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +427,7 @@
   <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E65536"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -443,29 +444,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
